--- a/xlsx/notifier-django.po.xlsx
+++ b/xlsx/notifier-django.po.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Translations" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="555" windowWidth="22695" windowHeight="8130"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Translations" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Message id</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Kedves %(name)s,</t>
-  </si>
-  <si>
-    <t>You have %(thread_count)s discussion thread with updates in %(course_names)s. The most recent highlights are shown below. As a reminder, you can turn off all discussion digests from any course's Discussion Home page.</t>
   </si>
   <si>
     <t>&lt;span %(author_span_attrs)s&gt;%(author)s: &lt;/span&gt;&lt;span %(datetime_span_attrs)s&gt;on %(datetime)s UTC&lt;/span&gt;</t>
@@ -73,20 +70,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,16 +98,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,19 +400,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -443,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -451,44 +453,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>